--- a/Assets/Landmarks/Text Files/current/list_sheltonville_ALLsorted.xlsx
+++ b/Assets/Landmarks/Text Files/current/list_sheltonville_ALLsorted.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsta_000\Documents\unity\github_repos\LandMarksVirtualizer\Assets\Landmarks\Text Files\current\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="825" yWindow="285" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -179,9 +174,6 @@
     <t>Toy Store.</t>
   </si>
   <si>
-    <t>Barb er.</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -195,6 +187,9 @@
   </si>
   <si>
     <t>hID</t>
+  </si>
+  <si>
+    <t>barber.</t>
   </si>
 </sst>
 </file>
@@ -573,33 +568,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A59" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -616,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -633,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -650,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -667,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -684,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -701,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -718,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -735,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -752,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -769,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -786,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -803,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -820,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -837,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -854,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -871,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -888,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -905,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -922,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -939,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -956,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -973,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -990,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1211,12 +1206,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1228,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1330,12 +1325,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1347,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1415,12 +1410,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1432,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -1755,12 +1750,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1772,7 +1767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1806,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -1823,7 +1818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -1840,7 +1835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -1942,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -1993,7 +1988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -2078,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2197,7 +2192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2214,7 +2209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -2265,12 +2260,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C100">
         <v>8</v>
@@ -2282,7 +2277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -2367,7 +2362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -2486,7 +2481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -2520,7 +2515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -2537,7 +2532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2554,7 +2549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -2622,7 +2617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -2639,7 +2634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -2656,7 +2651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -2673,7 +2668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -2707,7 +2702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -2741,7 +2736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -2775,12 +2770,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>37</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -2792,7 +2787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -2826,7 +2821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -2843,7 +2838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -2860,7 +2855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -2877,7 +2872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -2894,7 +2889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +2923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -2945,7 +2940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -2962,7 +2957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +2974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -3013,7 +3008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -3030,7 +3025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -3064,7 +3059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +3127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -3149,7 +3144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -3166,7 +3161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3200,7 +3195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3302,7 +3297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3336,7 +3331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -3404,7 +3399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -3557,7 +3552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -3625,7 +3620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +3637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3659,7 +3654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +3739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>48</v>
       </c>
@@ -3778,7 +3773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -3829,7 +3824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -3846,7 +3841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -3863,7 +3858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +3943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -3982,7 +3977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -3999,7 +3994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -4033,7 +4028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -4050,7 +4045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -4067,7 +4062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -4084,7 +4079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>47</v>
       </c>
@@ -4118,7 +4113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>47</v>
       </c>
@@ -4135,7 +4130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>47</v>
       </c>
@@ -4152,7 +4147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -4174,7 +4169,7 @@
     <sortCondition ref="A2:A211"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
